--- a/biology/Botanique/Cylindrocline_commersonii/Cylindrocline_commersonii.xlsx
+++ b/biology/Botanique/Cylindrocline_commersonii/Cylindrocline_commersonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cylindrocline commersonii est une espèce de plante à fleurs de la famille des Asteraceae. Elle est endémique de l'île Maurice et est en danger critique d'extinction.
 Son habitat naturel se situe dans les forêts sèches tropicales.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cylindrocline commersonii est un arbuste pouvant atteindre 1 m de hauteur. Le sommet de ses rameaux épais, étalés est couvert d'une pilosité dense et laineuse[2].
-Les feuilles sont d'un vert clair doré[2] de 50 à 70 mm de long pour 15 à 28 mm de large. Leur forme est spatulée à oblongue ou bien elliptique à obovale avec une base cunéiforme. La surface inférieure est densément recouverte de poils laineux blancs. La surface supérieure, de couleur vert-pomme clair passant au vert moyen, devient moins velue sauf vers les bords. Elle apparaît plus ou moins bulbeuse avec un bord dentelé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylindrocline commersonii est un arbuste pouvant atteindre 1 m de hauteur. Le sommet de ses rameaux épais, étalés est couvert d'une pilosité dense et laineuse.
+Les feuilles sont d'un vert clair doré de 50 à 70 mm de long pour 15 à 28 mm de large. Leur forme est spatulée à oblongue ou bien elliptique à obovale avec une base cunéiforme. La surface inférieure est densément recouverte de poils laineux blancs. La surface supérieure, de couleur vert-pomme clair passant au vert moyen, devient moins velue sauf vers les bords. Elle apparaît plus ou moins bulbeuse avec un bord dentelé.
 La floraison se fait de février à mai sur l'île Maurice et d'août à octobre pour l'espèce cultivée dans les Jardins botaniques royaux de Kew.
 </t>
         </is>
@@ -545,13 +559,15 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'île Maurice.
 La localisation historique a été donnée par Wenceslas Bojer en 1837 : « sur le sommet du Pouce et au Piton de la Rivière Noire ».
 La plante est nommée en l'honneur de Philibert Commerson, naturaliste qui visita Maurice.
-En 1974, la population de cette espèce atteignait 20 à 25 plants, pour passer à environ 12 plants en 1984[3].
-En 2014, une population d'une trentaine de pieds a été observée sous le sommet du Mont du Pouce [2], dans les zones herbeuses entre 790 et 812 m au-dessus du niveau de la mer.
+En 1974, la population de cette espèce atteignait 20 à 25 plants, pour passer à environ 12 plants en 1984.
+En 2014, une population d'une trentaine de pieds a été observée sous le sommet du Mont du Pouce , dans les zones herbeuses entre 790 et 812 m au-dessus du niveau de la mer.
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est considérée en danger critique d'extinction sur la liste rouge de l'UICN. Elle est très sensible aux infestations de punaises farineuses pouvant être assez sérieux pour tuer la plante.
-Elle est cultivée dans moins de six jardins dans le monde [4] dans les serres tropicales au climat « montagnes tropicales humides » du Conservatoire botanique national de Brest[2] qui mène un programme de conservation spécifique avec le National Park Conservation Service de l’île Maurice[5].
+Elle est cultivée dans moins de six jardins dans le monde  dans les serres tropicales au climat « montagnes tropicales humides » du Conservatoire botanique national de Brest qui mène un programme de conservation spécifique avec le National Park Conservation Service de l’île Maurice.
 </t>
         </is>
       </c>
